--- a/CodeSystem-PMIIdentifierTypeCS.xlsx
+++ b/CodeSystem-PMIIdentifierTypeCS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-09T17:00:58+00:00</t>
+    <t>2023-01-09T19:01:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -132,10 +132,10 @@
     <t>Definition</t>
   </si>
   <si>
-    <t>NPH</t>
-  </si>
-  <si>
-    <t>NPH Program Identifier</t>
+    <t>NPH-1000</t>
+  </si>
+  <si>
+    <t>NPH Program Identifier for study 1000</t>
   </si>
 </sst>
 </file>

--- a/CodeSystem-PMIIdentifierTypeCS.xlsx
+++ b/CodeSystem-PMIIdentifierTypeCS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-09T19:01:04+00:00</t>
+    <t>2023-01-17T01:07:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
